--- a/Doc/ASISTENICA DE ALUMNOS,  MG. ERIC CORONEL.xlsx
+++ b/Doc/ASISTENICA DE ALUMNOS,  MG. ERIC CORONEL.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UNI\UNI-FIIS-TPW-2022-1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7B052CD-8237-427F-A392-F2AA237C6F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5207509-7E6D-4AD4-982D-F56D2C282F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOCENTES NOMB, CONT Y ORD SERV" sheetId="5" r:id="rId1"/>
@@ -22,21 +22,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'DOCENTES NOMB, CONT Y ORD SERV'!$A$1:$H$18</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="34">
   <si>
     <t>Nº</t>
   </si>
@@ -143,7 +133,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -387,6 +377,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -398,30 +412,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -760,14 +750,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="A4" sqref="A4:R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -803,168 +793,168 @@
       <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
     </row>
     <row r="7" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
     </row>
     <row r="8" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="26" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="26" t="s">
+      <c r="F8" s="23"/>
+      <c r="G8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="26" t="s">
+      <c r="H8" s="23"/>
+      <c r="I8" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="26" t="s">
+      <c r="J8" s="23"/>
+      <c r="K8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="27"/>
-      <c r="M8" s="26" t="s">
+      <c r="L8" s="23"/>
+      <c r="M8" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="27"/>
-      <c r="O8" s="26" t="s">
+      <c r="N8" s="23"/>
+      <c r="O8" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="26" t="s">
+      <c r="P8" s="23"/>
+      <c r="Q8" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="R8" s="27"/>
-      <c r="S8" s="26" t="s">
+      <c r="R8" s="23"/>
+      <c r="S8" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="T8" s="27"/>
-      <c r="U8" s="26" t="s">
+      <c r="T8" s="23"/>
+      <c r="U8" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="V8" s="27"/>
-      <c r="W8" s="26" t="s">
+      <c r="V8" s="23"/>
+      <c r="W8" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="X8" s="27"/>
+      <c r="X8" s="23"/>
     </row>
     <row r="9" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
-      <c r="B9" s="22"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="5" t="s">
         <v>1</v>
       </c>
@@ -1033,276 +1023,292 @@
       </c>
     </row>
     <row r="10" spans="1:24" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28">
+      <c r="A10" s="19">
         <v>1</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="29"/>
+      <c r="C10" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
     </row>
     <row r="11" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28">
+      <c r="A11" s="19">
         <v>2</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
+      <c r="C11" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
     </row>
     <row r="12" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28">
+      <c r="A12" s="19">
         <v>3</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
+      <c r="C12" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
     </row>
     <row r="13" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="28">
+      <c r="A13" s="19">
         <v>4</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
+      <c r="C13" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
     </row>
     <row r="14" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28">
+      <c r="A14" s="19">
         <v>5</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
+      <c r="C14" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
     </row>
     <row r="15" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="28">
+      <c r="A15" s="19">
         <v>6</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
+      <c r="C15" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
     </row>
     <row r="16" spans="1:24" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28">
+      <c r="A16" s="19">
         <v>7</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
+      <c r="C16" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
     </row>
     <row r="17" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28">
+      <c r="A17" s="19">
         <v>8</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
+      <c r="C17" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
     </row>
     <row r="18" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
@@ -1310,6 +1316,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
     <mergeCell ref="S8:T8"/>
     <mergeCell ref="U8:V8"/>
     <mergeCell ref="W8:X8"/>
@@ -1326,8 +1334,6 @@
     <mergeCell ref="A4:R4"/>
     <mergeCell ref="A6:R6"/>
     <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -1335,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1347,7 +1353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:F10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>

--- a/Doc/ASISTENICA DE ALUMNOS,  MG. ERIC CORONEL.xlsx
+++ b/Doc/ASISTENICA DE ALUMNOS,  MG. ERIC CORONEL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UNI\UNI-FIIS-TPW-2022-1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5207509-7E6D-4AD4-982D-F56D2C282F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D3AA56-45A5-4029-8F22-313EA44AECA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="34">
   <si>
     <t>Nº</t>
   </si>
@@ -757,7 +757,7 @@
   <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:R4"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1045,7 +1045,9 @@
         <v>33</v>
       </c>
       <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
+      <c r="M10" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="N10" s="20"/>
       <c r="O10" s="20"/>
       <c r="P10" s="20"/>
@@ -1081,7 +1083,9 @@
         <v>33</v>
       </c>
       <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
+      <c r="M11" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="N11" s="21"/>
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
@@ -1117,7 +1121,9 @@
         <v>33</v>
       </c>
       <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
+      <c r="M12" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="N12" s="21"/>
       <c r="O12" s="21"/>
       <c r="P12" s="21"/>
@@ -1153,7 +1159,9 @@
         <v>33</v>
       </c>
       <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
+      <c r="M13" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="N13" s="21"/>
       <c r="O13" s="21"/>
       <c r="P13" s="21"/>
@@ -1189,7 +1197,9 @@
         <v>33</v>
       </c>
       <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
+      <c r="M14" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="N14" s="21"/>
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
@@ -1225,7 +1235,9 @@
         <v>33</v>
       </c>
       <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
+      <c r="M15" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="N15" s="21"/>
       <c r="O15" s="21"/>
       <c r="P15" s="21"/>
@@ -1261,7 +1273,9 @@
         <v>33</v>
       </c>
       <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
+      <c r="M16" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="N16" s="21"/>
       <c r="O16" s="21"/>
       <c r="P16" s="21"/>
@@ -1297,7 +1311,9 @@
         <v>33</v>
       </c>
       <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
+      <c r="M17" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="N17" s="21"/>
       <c r="O17" s="21"/>
       <c r="P17" s="21"/>
@@ -1316,11 +1332,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="A5:R5"/>
     <mergeCell ref="A7:R7"/>
@@ -1334,6 +1345,11 @@
     <mergeCell ref="A4:R4"/>
     <mergeCell ref="A6:R6"/>
     <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Doc/ASISTENICA DE ALUMNOS,  MG. ERIC CORONEL.xlsx
+++ b/Doc/ASISTENICA DE ALUMNOS,  MG. ERIC CORONEL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UNI\UNI-FIIS-TPW-2022-1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D3AA56-45A5-4029-8F22-313EA44AECA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BA6BA4-B82B-4E1E-9F73-60D7F25689EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="34">
   <si>
     <t>Nº</t>
   </si>
@@ -386,20 +386,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -757,7 +757,7 @@
   <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -793,112 +793,112 @@
       <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
     </row>
     <row r="4" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
     </row>
     <row r="8" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
@@ -907,50 +907,50 @@
       <c r="B8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="22" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="22" t="s">
+      <c r="F8" s="26"/>
+      <c r="G8" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="22" t="s">
+      <c r="H8" s="26"/>
+      <c r="I8" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="22" t="s">
+      <c r="J8" s="26"/>
+      <c r="K8" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="23"/>
-      <c r="M8" s="22" t="s">
+      <c r="L8" s="26"/>
+      <c r="M8" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="23"/>
-      <c r="O8" s="22" t="s">
+      <c r="N8" s="26"/>
+      <c r="O8" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="22" t="s">
+      <c r="P8" s="26"/>
+      <c r="Q8" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="R8" s="23"/>
-      <c r="S8" s="22" t="s">
+      <c r="R8" s="26"/>
+      <c r="S8" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="T8" s="23"/>
-      <c r="U8" s="22" t="s">
+      <c r="T8" s="26"/>
+      <c r="U8" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="V8" s="23"/>
-      <c r="W8" s="22" t="s">
+      <c r="V8" s="26"/>
+      <c r="W8" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="X8" s="23"/>
+      <c r="X8" s="26"/>
     </row>
     <row r="9" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="28"/>
@@ -1050,7 +1050,9 @@
       </c>
       <c r="N10" s="20"/>
       <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
+      <c r="P10" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="Q10" s="20"/>
       <c r="R10" s="20"/>
       <c r="S10" s="20"/>
@@ -1088,7 +1090,9 @@
       </c>
       <c r="N11" s="21"/>
       <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
+      <c r="P11" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="Q11" s="21"/>
       <c r="R11" s="21"/>
       <c r="S11" s="21"/>
@@ -1126,7 +1130,9 @@
       </c>
       <c r="N12" s="21"/>
       <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
+      <c r="P12" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="Q12" s="21"/>
       <c r="R12" s="21"/>
       <c r="S12" s="21"/>
@@ -1164,7 +1170,9 @@
       </c>
       <c r="N13" s="21"/>
       <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
+      <c r="P13" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="Q13" s="21"/>
       <c r="R13" s="21"/>
       <c r="S13" s="21"/>
@@ -1202,7 +1210,9 @@
       </c>
       <c r="N14" s="21"/>
       <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
+      <c r="P14" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="Q14" s="21"/>
       <c r="R14" s="21"/>
       <c r="S14" s="21"/>
@@ -1240,7 +1250,9 @@
       </c>
       <c r="N15" s="21"/>
       <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
+      <c r="P15" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
       <c r="S15" s="21"/>
@@ -1278,7 +1290,9 @@
       </c>
       <c r="N16" s="21"/>
       <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
+      <c r="P16" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="Q16" s="21"/>
       <c r="R16" s="21"/>
       <c r="S16" s="21"/>
@@ -1316,7 +1330,9 @@
       </c>
       <c r="N17" s="21"/>
       <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
+      <c r="P17" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="Q17" s="21"/>
       <c r="R17" s="21"/>
       <c r="S17" s="21"/>
@@ -1332,6 +1348,9 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="A5:R5"/>
     <mergeCell ref="A7:R7"/>
@@ -1347,9 +1366,6 @@
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Doc/ASISTENICA DE ALUMNOS,  MG. ERIC CORONEL.xlsx
+++ b/Doc/ASISTENICA DE ALUMNOS,  MG. ERIC CORONEL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UNI\UNI-FIIS-TPW-2022-1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BA6BA4-B82B-4E1E-9F73-60D7F25689EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D1C3F4-BABA-4746-A10C-BAAE646F7243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="34">
   <si>
     <t>Nº</t>
   </si>
@@ -386,6 +386,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -394,12 +400,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -757,14 +757,15 @@
   <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.42578125" style="1" customWidth="1"/>
-    <col min="3" max="95" width="10.7109375" style="1" customWidth="1"/>
+    <col min="3" max="16" width="10.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="95" width="10.7109375" style="1" customWidth="1"/>
     <col min="96" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -793,112 +794,112 @@
       <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
     </row>
     <row r="7" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
     </row>
     <row r="8" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
@@ -907,50 +908,50 @@
       <c r="B8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="25" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="25" t="s">
+      <c r="F8" s="23"/>
+      <c r="G8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="25" t="s">
+      <c r="H8" s="23"/>
+      <c r="I8" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="26"/>
-      <c r="K8" s="25" t="s">
+      <c r="J8" s="23"/>
+      <c r="K8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="26"/>
-      <c r="M8" s="25" t="s">
+      <c r="L8" s="23"/>
+      <c r="M8" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="26"/>
-      <c r="O8" s="25" t="s">
+      <c r="N8" s="23"/>
+      <c r="O8" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="25" t="s">
+      <c r="P8" s="23"/>
+      <c r="Q8" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="R8" s="26"/>
-      <c r="S8" s="25" t="s">
+      <c r="R8" s="23"/>
+      <c r="S8" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="T8" s="26"/>
-      <c r="U8" s="25" t="s">
+      <c r="T8" s="23"/>
+      <c r="U8" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="V8" s="26"/>
-      <c r="W8" s="25" t="s">
+      <c r="V8" s="23"/>
+      <c r="W8" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="X8" s="26"/>
+      <c r="X8" s="23"/>
     </row>
     <row r="9" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="28"/>
@@ -1053,7 +1054,9 @@
       <c r="P10" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="Q10" s="20"/>
+      <c r="Q10" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="R10" s="20"/>
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
@@ -1093,7 +1096,9 @@
       <c r="P11" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="Q11" s="21"/>
+      <c r="Q11" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="R11" s="21"/>
       <c r="S11" s="21"/>
       <c r="T11" s="21"/>
@@ -1133,7 +1138,9 @@
       <c r="P12" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="Q12" s="21"/>
+      <c r="Q12" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="R12" s="21"/>
       <c r="S12" s="21"/>
       <c r="T12" s="21"/>
@@ -1173,7 +1180,9 @@
       <c r="P13" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="Q13" s="21"/>
+      <c r="Q13" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="R13" s="21"/>
       <c r="S13" s="21"/>
       <c r="T13" s="21"/>
@@ -1213,7 +1222,9 @@
       <c r="P14" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="Q14" s="21"/>
+      <c r="Q14" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="R14" s="21"/>
       <c r="S14" s="21"/>
       <c r="T14" s="21"/>
@@ -1253,7 +1264,9 @@
       <c r="P15" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="Q15" s="21"/>
+      <c r="Q15" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="R15" s="21"/>
       <c r="S15" s="21"/>
       <c r="T15" s="21"/>
@@ -1293,7 +1306,9 @@
       <c r="P16" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="Q16" s="21"/>
+      <c r="Q16" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="R16" s="21"/>
       <c r="S16" s="21"/>
       <c r="T16" s="21"/>
@@ -1333,7 +1348,9 @@
       <c r="P17" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="Q17" s="21"/>
+      <c r="Q17" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="R17" s="21"/>
       <c r="S17" s="21"/>
       <c r="T17" s="21"/>
@@ -1348,6 +1365,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
     <mergeCell ref="S8:T8"/>
     <mergeCell ref="U8:V8"/>
     <mergeCell ref="W8:X8"/>
@@ -1364,8 +1383,6 @@
     <mergeCell ref="A4:R4"/>
     <mergeCell ref="A6:R6"/>
     <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Doc/ASISTENICA DE ALUMNOS,  MG. ERIC CORONEL.xlsx
+++ b/Doc/ASISTENICA DE ALUMNOS,  MG. ERIC CORONEL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UNI\UNI-FIIS-TPW-2022-1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D1C3F4-BABA-4746-A10C-BAAE646F7243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC21853B-F765-4E8D-8E7E-07CDC63D2190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="35">
   <si>
     <t>Nº</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>MIERCOLES   16/03/22</t>
   </si>
 </sst>
 </file>
@@ -757,7 +760,7 @@
   <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -941,7 +944,7 @@
       </c>
       <c r="R8" s="23"/>
       <c r="S8" s="22" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="T8" s="23"/>
       <c r="U8" s="22" t="s">
@@ -1058,7 +1061,9 @@
         <v>33</v>
       </c>
       <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
+      <c r="S10" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
       <c r="V10" s="20"/>
@@ -1100,7 +1105,9 @@
         <v>33</v>
       </c>
       <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
+      <c r="S11" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="T11" s="21"/>
       <c r="U11" s="21"/>
       <c r="V11" s="21"/>
@@ -1142,7 +1149,9 @@
         <v>33</v>
       </c>
       <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
+      <c r="S12" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="T12" s="21"/>
       <c r="U12" s="21"/>
       <c r="V12" s="21"/>
@@ -1184,7 +1193,9 @@
         <v>33</v>
       </c>
       <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
+      <c r="S13" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="T13" s="21"/>
       <c r="U13" s="21"/>
       <c r="V13" s="21"/>
@@ -1226,7 +1237,9 @@
         <v>33</v>
       </c>
       <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
+      <c r="S14" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="T14" s="21"/>
       <c r="U14" s="21"/>
       <c r="V14" s="21"/>
@@ -1268,7 +1281,9 @@
         <v>33</v>
       </c>
       <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
+      <c r="S15" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="T15" s="21"/>
       <c r="U15" s="21"/>
       <c r="V15" s="21"/>
@@ -1310,7 +1325,9 @@
         <v>33</v>
       </c>
       <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
+      <c r="S16" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="T16" s="21"/>
       <c r="U16" s="21"/>
       <c r="V16" s="21"/>
@@ -1352,7 +1369,9 @@
         <v>33</v>
       </c>
       <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
+      <c r="S17" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="T17" s="21"/>
       <c r="U17" s="21"/>
       <c r="V17" s="21"/>
@@ -1365,11 +1384,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="A5:R5"/>
     <mergeCell ref="A7:R7"/>
@@ -1383,6 +1397,11 @@
     <mergeCell ref="A4:R4"/>
     <mergeCell ref="A6:R6"/>
     <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Doc/ASISTENICA DE ALUMNOS,  MG. ERIC CORONEL.xlsx
+++ b/Doc/ASISTENICA DE ALUMNOS,  MG. ERIC CORONEL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UNI\UNI-FIIS-TPW-2022-1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC21853B-F765-4E8D-8E7E-07CDC63D2190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68F1751-CBF2-4DDA-B3B6-00300EA02876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="36">
   <si>
     <t>Nº</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>MIERCOLES   16/03/22</t>
+  </si>
+  <si>
+    <t>VIERNES   18/03/22</t>
   </si>
 </sst>
 </file>
@@ -389,20 +392,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -760,7 +763,7 @@
   <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -797,112 +800,112 @@
       <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
     </row>
     <row r="4" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
     </row>
     <row r="8" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
@@ -911,50 +914,50 @@
       <c r="B8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="22" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="22" t="s">
+      <c r="F8" s="26"/>
+      <c r="G8" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="22" t="s">
+      <c r="H8" s="26"/>
+      <c r="I8" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="22" t="s">
+      <c r="J8" s="26"/>
+      <c r="K8" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="23"/>
-      <c r="M8" s="22" t="s">
+      <c r="L8" s="26"/>
+      <c r="M8" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="23"/>
-      <c r="O8" s="22" t="s">
+      <c r="N8" s="26"/>
+      <c r="O8" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="22" t="s">
+      <c r="P8" s="26"/>
+      <c r="Q8" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="R8" s="23"/>
-      <c r="S8" s="22" t="s">
+      <c r="R8" s="26"/>
+      <c r="S8" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="T8" s="23"/>
-      <c r="U8" s="22" t="s">
+      <c r="T8" s="26"/>
+      <c r="U8" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="V8" s="26"/>
+      <c r="W8" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="V8" s="23"/>
-      <c r="W8" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="X8" s="23"/>
+      <c r="X8" s="26"/>
     </row>
     <row r="9" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="28"/>
@@ -1065,7 +1068,9 @@
         <v>33</v>
       </c>
       <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
+      <c r="U10" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="V10" s="20"/>
       <c r="W10" s="20"/>
       <c r="X10" s="20"/>
@@ -1109,7 +1114,9 @@
         <v>33</v>
       </c>
       <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
+      <c r="U11" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="V11" s="21"/>
       <c r="W11" s="21"/>
       <c r="X11" s="21"/>
@@ -1153,7 +1160,9 @@
         <v>33</v>
       </c>
       <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
+      <c r="U12" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="V12" s="21"/>
       <c r="W12" s="21"/>
       <c r="X12" s="21"/>
@@ -1197,7 +1206,9 @@
         <v>33</v>
       </c>
       <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
+      <c r="U13" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
       <c r="X13" s="21"/>
@@ -1241,7 +1252,9 @@
         <v>33</v>
       </c>
       <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
+      <c r="U14" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="V14" s="21"/>
       <c r="W14" s="21"/>
       <c r="X14" s="21"/>
@@ -1285,7 +1298,9 @@
         <v>33</v>
       </c>
       <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
+      <c r="U15" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="V15" s="21"/>
       <c r="W15" s="21"/>
       <c r="X15" s="21"/>
@@ -1329,7 +1344,9 @@
         <v>33</v>
       </c>
       <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
+      <c r="U16" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="V16" s="21"/>
       <c r="W16" s="21"/>
       <c r="X16" s="21"/>
@@ -1373,7 +1390,9 @@
         <v>33</v>
       </c>
       <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
+      <c r="U17" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="V17" s="21"/>
       <c r="W17" s="21"/>
       <c r="X17" s="21"/>
@@ -1384,6 +1403,9 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="A5:R5"/>
     <mergeCell ref="A7:R7"/>
@@ -1399,9 +1421,6 @@
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Doc/ASISTENICA DE ALUMNOS,  MG. ERIC CORONEL.xlsx
+++ b/Doc/ASISTENICA DE ALUMNOS,  MG. ERIC CORONEL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UNI\UNI-FIIS-TPW-2022-1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68F1751-CBF2-4DDA-B3B6-00300EA02876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B759D50-7B03-4A71-BFB5-FD46B2293B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="37">
   <si>
     <t>Nº</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>VIERNES   18/03/22</t>
+  </si>
+  <si>
+    <t>MIERCOLES   23/03/22</t>
   </si>
 </sst>
 </file>
@@ -392,6 +395,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -400,12 +409,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -760,10 +763,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X18"/>
+  <dimension ref="A1:AD18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -775,7 +778,7 @@
     <col min="96" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>21</v>
       </c>
@@ -788,7 +791,7 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
     </row>
-    <row r="2" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -799,167 +802,179 @@
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:30" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-    </row>
-    <row r="4" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+    </row>
+    <row r="4" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-    </row>
-    <row r="5" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+    </row>
+    <row r="5" spans="1:30" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-    </row>
-    <row r="6" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+    </row>
+    <row r="6" spans="1:30" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-    </row>
-    <row r="7" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-    </row>
-    <row r="8" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+    </row>
+    <row r="7" spans="1:30" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+    </row>
+    <row r="8" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="25" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="25" t="s">
+      <c r="F8" s="23"/>
+      <c r="G8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="25" t="s">
+      <c r="H8" s="23"/>
+      <c r="I8" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="26"/>
-      <c r="K8" s="25" t="s">
+      <c r="J8" s="23"/>
+      <c r="K8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="26"/>
-      <c r="M8" s="25" t="s">
+      <c r="L8" s="23"/>
+      <c r="M8" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="26"/>
-      <c r="O8" s="25" t="s">
+      <c r="N8" s="23"/>
+      <c r="O8" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="25" t="s">
+      <c r="P8" s="23"/>
+      <c r="Q8" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="R8" s="26"/>
-      <c r="S8" s="25" t="s">
+      <c r="R8" s="23"/>
+      <c r="S8" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="T8" s="26"/>
-      <c r="U8" s="25" t="s">
+      <c r="T8" s="23"/>
+      <c r="U8" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="V8" s="26"/>
-      <c r="W8" s="25" t="s">
+      <c r="V8" s="23"/>
+      <c r="W8" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="X8" s="26"/>
-    </row>
-    <row r="9" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD8" s="23"/>
+    </row>
+    <row r="9" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="28"/>
       <c r="B9" s="30"/>
       <c r="C9" s="5" t="s">
@@ -1028,8 +1043,26 @@
       <c r="X9" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19">
         <v>1</v>
       </c>
@@ -1073,9 +1106,17 @@
       </c>
       <c r="V10" s="20"/>
       <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-    </row>
-    <row r="11" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X10" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+    </row>
+    <row r="11" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19">
         <v>2</v>
       </c>
@@ -1119,9 +1160,17 @@
       </c>
       <c r="V11" s="21"/>
       <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-    </row>
-    <row r="12" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X11" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+    </row>
+    <row r="12" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="19">
         <v>3</v>
       </c>
@@ -1165,9 +1214,17 @@
       </c>
       <c r="V12" s="21"/>
       <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-    </row>
-    <row r="13" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X12" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+    </row>
+    <row r="13" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19">
         <v>4</v>
       </c>
@@ -1211,9 +1268,17 @@
       </c>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-    </row>
-    <row r="14" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X13" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+    </row>
+    <row r="14" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19">
         <v>5</v>
       </c>
@@ -1257,9 +1322,17 @@
       </c>
       <c r="V14" s="21"/>
       <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-    </row>
-    <row r="15" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X14" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+    </row>
+    <row r="15" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19">
         <v>6</v>
       </c>
@@ -1303,9 +1376,17 @@
       </c>
       <c r="V15" s="21"/>
       <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-    </row>
-    <row r="16" spans="1:24" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X15" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+    </row>
+    <row r="16" spans="1:30" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19">
         <v>7</v>
       </c>
@@ -1350,8 +1431,14 @@
       <c r="V16" s="21"/>
       <c r="W16" s="21"/>
       <c r="X16" s="21"/>
-    </row>
-    <row r="17" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21"/>
+    </row>
+    <row r="17" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19">
         <v>8</v>
       </c>
@@ -1395,14 +1482,27 @@
       </c>
       <c r="V17" s="21"/>
       <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-    </row>
-    <row r="18" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X17" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+    </row>
+    <row r="18" spans="1:30" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="21">
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
     <mergeCell ref="S8:T8"/>
     <mergeCell ref="U8:V8"/>
     <mergeCell ref="W8:X8"/>
@@ -1419,8 +1519,6 @@
     <mergeCell ref="A4:R4"/>
     <mergeCell ref="A6:R6"/>
     <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Doc/ASISTENICA DE ALUMNOS,  MG. ERIC CORONEL.xlsx
+++ b/Doc/ASISTENICA DE ALUMNOS,  MG. ERIC CORONEL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UNI\UNI-FIIS-TPW-2022-1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B759D50-7B03-4A71-BFB5-FD46B2293B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E11A6E0-C71F-40C7-A58F-CFFE279AA8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="37">
   <si>
     <t>Nº</t>
   </si>
@@ -1430,7 +1430,9 @@
       </c>
       <c r="V16" s="21"/>
       <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
+      <c r="X16" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="Y16" s="21"/>
       <c r="Z16" s="21"/>
       <c r="AA16" s="21"/>
@@ -1498,14 +1500,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="A5:R5"/>
     <mergeCell ref="A7:R7"/>
@@ -1519,6 +1513,14 @@
     <mergeCell ref="A4:R4"/>
     <mergeCell ref="A6:R6"/>
     <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Doc/ASISTENICA DE ALUMNOS,  MG. ERIC CORONEL.xlsx
+++ b/Doc/ASISTENICA DE ALUMNOS,  MG. ERIC CORONEL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UNI\UNI-FIIS-TPW-2022-1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E11A6E0-C71F-40C7-A58F-CFFE279AA8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99851AB2-68CF-430F-A896-10B4A2807A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="39">
   <si>
     <t>Nº</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>MIERCOLES   23/03/22</t>
+  </si>
+  <si>
+    <t>VIERNES   25/03/22</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -395,20 +401,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -766,7 +772,7 @@
   <dimension ref="A1:AD18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+      <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -803,112 +809,112 @@
       <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:30" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
     </row>
     <row r="4" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
     </row>
     <row r="5" spans="1:30" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="1:30" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="1:30" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
     </row>
     <row r="8" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
@@ -917,62 +923,62 @@
       <c r="B8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="22" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="22" t="s">
+      <c r="F8" s="26"/>
+      <c r="G8" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="22" t="s">
+      <c r="H8" s="26"/>
+      <c r="I8" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="22" t="s">
+      <c r="J8" s="26"/>
+      <c r="K8" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="23"/>
-      <c r="M8" s="22" t="s">
+      <c r="L8" s="26"/>
+      <c r="M8" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="23"/>
-      <c r="O8" s="22" t="s">
+      <c r="N8" s="26"/>
+      <c r="O8" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="22" t="s">
+      <c r="P8" s="26"/>
+      <c r="Q8" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="R8" s="23"/>
-      <c r="S8" s="22" t="s">
+      <c r="R8" s="26"/>
+      <c r="S8" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="T8" s="23"/>
-      <c r="U8" s="22" t="s">
+      <c r="T8" s="26"/>
+      <c r="U8" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="V8" s="23"/>
-      <c r="W8" s="22" t="s">
+      <c r="V8" s="26"/>
+      <c r="W8" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="22" t="s">
+      <c r="X8" s="26"/>
+      <c r="Y8" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="22" t="s">
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="AB8" s="23"/>
-      <c r="AC8" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD8" s="23"/>
+      <c r="AD8" s="26"/>
     </row>
     <row r="9" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="28"/>
@@ -1109,7 +1115,9 @@
       <c r="X10" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="Y10" s="20"/>
+      <c r="Y10" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="Z10" s="20"/>
       <c r="AA10" s="20"/>
       <c r="AB10" s="20"/>
@@ -1163,7 +1171,9 @@
       <c r="X11" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="Y11" s="21"/>
+      <c r="Y11" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="Z11" s="21"/>
       <c r="AA11" s="21"/>
       <c r="AB11" s="21"/>
@@ -1217,7 +1227,9 @@
       <c r="X12" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="Y12" s="21"/>
+      <c r="Y12" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="Z12" s="21"/>
       <c r="AA12" s="21"/>
       <c r="AB12" s="21"/>
@@ -1271,7 +1283,9 @@
       <c r="X13" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="Y13" s="21"/>
+      <c r="Y13" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="Z13" s="21"/>
       <c r="AA13" s="21"/>
       <c r="AB13" s="21"/>
@@ -1325,7 +1339,9 @@
       <c r="X14" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="Y14" s="21"/>
+      <c r="Y14" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="Z14" s="21"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="21"/>
@@ -1379,7 +1395,9 @@
       <c r="X15" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="Y15" s="21"/>
+      <c r="Y15" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="Z15" s="21"/>
       <c r="AA15" s="21"/>
       <c r="AB15" s="21"/>
@@ -1433,7 +1451,9 @@
       <c r="X16" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="Y16" s="21"/>
+      <c r="Y16" s="21" t="s">
+        <v>38</v>
+      </c>
       <c r="Z16" s="21"/>
       <c r="AA16" s="21"/>
       <c r="AB16" s="21"/>
@@ -1487,7 +1507,9 @@
       <c r="X17" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="Y17" s="21"/>
+      <c r="Y17" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="Z17" s="21"/>
       <c r="AA17" s="21"/>
       <c r="AB17" s="21"/>
@@ -1500,6 +1522,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="A5:R5"/>
     <mergeCell ref="A7:R7"/>
@@ -1515,12 +1543,6 @@
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Doc/ASISTENICA DE ALUMNOS,  MG. ERIC CORONEL.xlsx
+++ b/Doc/ASISTENICA DE ALUMNOS,  MG. ERIC CORONEL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UNI\UNI-FIIS-TPW-2022-1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99851AB2-68CF-430F-A896-10B4A2807A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E61EBB-1F5B-402E-B4B7-0651C23862DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="40">
   <si>
     <t>Nº</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>MIERCOLES   30/03/22</t>
   </si>
 </sst>
 </file>
@@ -401,6 +404,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -409,12 +418,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -769,10 +772,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AD18"/>
+  <dimension ref="A1:AH18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18"/>
+      <selection activeCell="AJ9" sqref="AJ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -784,7 +787,7 @@
     <col min="96" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>21</v>
       </c>
@@ -797,7 +800,7 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
     </row>
-    <row r="2" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -808,179 +811,187 @@
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:30" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-    </row>
-    <row r="4" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+    </row>
+    <row r="4" spans="1:34" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-    </row>
-    <row r="5" spans="1:30" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+    </row>
+    <row r="5" spans="1:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-    </row>
-    <row r="6" spans="1:30" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+    </row>
+    <row r="6" spans="1:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-    </row>
-    <row r="7" spans="1:30" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-    </row>
-    <row r="8" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+    </row>
+    <row r="7" spans="1:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+    </row>
+    <row r="8" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="25" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="25" t="s">
+      <c r="F8" s="23"/>
+      <c r="G8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="25" t="s">
+      <c r="H8" s="23"/>
+      <c r="I8" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="26"/>
-      <c r="K8" s="25" t="s">
+      <c r="J8" s="23"/>
+      <c r="K8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="26"/>
-      <c r="M8" s="25" t="s">
+      <c r="L8" s="23"/>
+      <c r="M8" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="26"/>
-      <c r="O8" s="25" t="s">
+      <c r="N8" s="23"/>
+      <c r="O8" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="25" t="s">
+      <c r="P8" s="23"/>
+      <c r="Q8" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="R8" s="26"/>
-      <c r="S8" s="25" t="s">
+      <c r="R8" s="23"/>
+      <c r="S8" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="T8" s="26"/>
-      <c r="U8" s="25" t="s">
+      <c r="T8" s="23"/>
+      <c r="U8" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="V8" s="26"/>
-      <c r="W8" s="25" t="s">
+      <c r="V8" s="23"/>
+      <c r="W8" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="25" t="s">
+      <c r="X8" s="23"/>
+      <c r="Y8" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="25" t="s">
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="25" t="s">
+      <c r="AD8" s="23"/>
+      <c r="AE8" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="AD8" s="26"/>
-    </row>
-    <row r="9" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF8" s="23"/>
+      <c r="AG8" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH8" s="23"/>
+    </row>
+    <row r="9" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="28"/>
       <c r="B9" s="30"/>
       <c r="C9" s="5" t="s">
@@ -1067,8 +1078,20 @@
       <c r="AD9" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19">
         <v>1</v>
       </c>
@@ -1120,11 +1143,17 @@
       </c>
       <c r="Z10" s="20"/>
       <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
+      <c r="AB10" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="AC10" s="20"/>
       <c r="AD10" s="20"/>
-    </row>
-    <row r="11" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="20"/>
+    </row>
+    <row r="11" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19">
         <v>2</v>
       </c>
@@ -1176,11 +1205,17 @@
       </c>
       <c r="Z11" s="21"/>
       <c r="AA11" s="21"/>
-      <c r="AB11" s="21"/>
+      <c r="AB11" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="AC11" s="21"/>
       <c r="AD11" s="21"/>
-    </row>
-    <row r="12" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="21"/>
+      <c r="AG11" s="21"/>
+      <c r="AH11" s="21"/>
+    </row>
+    <row r="12" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="19">
         <v>3</v>
       </c>
@@ -1232,11 +1267,17 @@
       </c>
       <c r="Z12" s="21"/>
       <c r="AA12" s="21"/>
-      <c r="AB12" s="21"/>
+      <c r="AB12" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="AC12" s="21"/>
       <c r="AD12" s="21"/>
-    </row>
-    <row r="13" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="21"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="21"/>
+    </row>
+    <row r="13" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19">
         <v>4</v>
       </c>
@@ -1288,11 +1329,17 @@
       </c>
       <c r="Z13" s="21"/>
       <c r="AA13" s="21"/>
-      <c r="AB13" s="21"/>
+      <c r="AB13" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="AC13" s="21"/>
       <c r="AD13" s="21"/>
-    </row>
-    <row r="14" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="21"/>
+      <c r="AG13" s="21"/>
+      <c r="AH13" s="21"/>
+    </row>
+    <row r="14" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19">
         <v>5</v>
       </c>
@@ -1344,11 +1391,17 @@
       </c>
       <c r="Z14" s="21"/>
       <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
+      <c r="AB14" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="AC14" s="21"/>
       <c r="AD14" s="21"/>
-    </row>
-    <row r="15" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="21"/>
+      <c r="AH14" s="21"/>
+    </row>
+    <row r="15" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19">
         <v>6</v>
       </c>
@@ -1400,11 +1453,17 @@
       </c>
       <c r="Z15" s="21"/>
       <c r="AA15" s="21"/>
-      <c r="AB15" s="21"/>
+      <c r="AB15" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="AC15" s="21"/>
       <c r="AD15" s="21"/>
-    </row>
-    <row r="16" spans="1:30" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="21"/>
+      <c r="AG15" s="21"/>
+      <c r="AH15" s="21"/>
+    </row>
+    <row r="16" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19">
         <v>7</v>
       </c>
@@ -1456,11 +1515,17 @@
       </c>
       <c r="Z16" s="21"/>
       <c r="AA16" s="21"/>
-      <c r="AB16" s="21"/>
+      <c r="AB16" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="AC16" s="21"/>
       <c r="AD16" s="21"/>
-    </row>
-    <row r="17" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="21"/>
+    </row>
+    <row r="17" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19">
         <v>8</v>
       </c>
@@ -1512,22 +1577,24 @@
       </c>
       <c r="Z17" s="21"/>
       <c r="AA17" s="21"/>
-      <c r="AB17" s="21"/>
+      <c r="AB17" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="AC17" s="21"/>
       <c r="AD17" s="21"/>
-    </row>
-    <row r="18" spans="1:30" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="21"/>
+    </row>
+    <row r="18" spans="1:34" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
+  <mergeCells count="23">
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AG8:AH8"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="A5:R5"/>
     <mergeCell ref="A7:R7"/>
@@ -1543,6 +1610,12 @@
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Doc/ASISTENICA DE ALUMNOS,  MG. ERIC CORONEL.xlsx
+++ b/Doc/ASISTENICA DE ALUMNOS,  MG. ERIC CORONEL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UNI\UNI-FIIS-TPW-2022-1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E61EBB-1F5B-402E-B4B7-0651C23862DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C554938-4D2F-4A7F-AF1A-C43FFC62C444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="41">
   <si>
     <t>Nº</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>MIERCOLES   30/03/22</t>
+  </si>
+  <si>
+    <t>VIERNES   01/04/22</t>
   </si>
 </sst>
 </file>
@@ -775,7 +778,7 @@
   <dimension ref="A1:AH18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AJ9" sqref="AJ9"/>
+      <selection activeCell="AB21" sqref="AB21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -979,7 +982,7 @@
       </c>
       <c r="AB8" s="23"/>
       <c r="AC8" s="22" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="AD8" s="23"/>
       <c r="AE8" s="22" t="s">
@@ -1146,7 +1149,9 @@
       <c r="AB10" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="AC10" s="20"/>
+      <c r="AC10" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="AD10" s="20"/>
       <c r="AE10" s="20"/>
       <c r="AF10" s="20"/>
@@ -1208,7 +1213,9 @@
       <c r="AB11" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="AC11" s="21"/>
+      <c r="AC11" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="AD11" s="21"/>
       <c r="AE11" s="21"/>
       <c r="AF11" s="21"/>
@@ -1270,7 +1277,9 @@
       <c r="AB12" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="AC12" s="21"/>
+      <c r="AC12" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="AD12" s="21"/>
       <c r="AE12" s="21"/>
       <c r="AF12" s="21"/>
@@ -1332,7 +1341,9 @@
       <c r="AB13" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="AC13" s="21"/>
+      <c r="AC13" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="AD13" s="21"/>
       <c r="AE13" s="21"/>
       <c r="AF13" s="21"/>
@@ -1394,7 +1405,9 @@
       <c r="AB14" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="AC14" s="21"/>
+      <c r="AC14" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="AD14" s="21"/>
       <c r="AE14" s="21"/>
       <c r="AF14" s="21"/>
@@ -1456,7 +1469,9 @@
       <c r="AB15" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="AC15" s="21"/>
+      <c r="AC15" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="AD15" s="21"/>
       <c r="AE15" s="21"/>
       <c r="AF15" s="21"/>
@@ -1518,7 +1533,9 @@
       <c r="AB16" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="AC16" s="21"/>
+      <c r="AC16" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="AD16" s="21"/>
       <c r="AE16" s="21"/>
       <c r="AF16" s="21"/>
@@ -1580,7 +1597,9 @@
       <c r="AB17" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="AC17" s="21"/>
+      <c r="AC17" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="AD17" s="21"/>
       <c r="AE17" s="21"/>
       <c r="AF17" s="21"/>
@@ -1593,6 +1612,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
     <mergeCell ref="AE8:AF8"/>
     <mergeCell ref="AG8:AH8"/>
     <mergeCell ref="A3:R3"/>
@@ -1609,13 +1635,6 @@
     <mergeCell ref="A6:R6"/>
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Doc/ASISTENICA DE ALUMNOS,  MG. ERIC CORONEL.xlsx
+++ b/Doc/ASISTENICA DE ALUMNOS,  MG. ERIC CORONEL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UNI\UNI-FIIS-TPW-2022-1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C554938-4D2F-4A7F-AF1A-C43FFC62C444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B52FBBF-44B8-43B9-B53F-CD49C69EC7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="42">
   <si>
     <t>Nº</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>VIERNES   01/04/22</t>
+  </si>
+  <si>
+    <t>MIERCOLES   6/04/22</t>
   </si>
 </sst>
 </file>
@@ -778,7 +781,7 @@
   <dimension ref="A1:AH18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AB21" sqref="AB21"/>
+      <selection activeCell="AG16" sqref="AG16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -986,7 +989,7 @@
       </c>
       <c r="AD8" s="23"/>
       <c r="AE8" s="22" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="AF8" s="23"/>
       <c r="AG8" s="22" t="s">
@@ -1154,7 +1157,9 @@
       </c>
       <c r="AD10" s="20"/>
       <c r="AE10" s="20"/>
-      <c r="AF10" s="20"/>
+      <c r="AF10" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="AG10" s="20"/>
       <c r="AH10" s="20"/>
     </row>
@@ -1218,7 +1223,9 @@
       </c>
       <c r="AD11" s="21"/>
       <c r="AE11" s="21"/>
-      <c r="AF11" s="21"/>
+      <c r="AF11" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="AG11" s="21"/>
       <c r="AH11" s="21"/>
     </row>
@@ -1282,7 +1289,9 @@
       </c>
       <c r="AD12" s="21"/>
       <c r="AE12" s="21"/>
-      <c r="AF12" s="21"/>
+      <c r="AF12" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="AG12" s="21"/>
       <c r="AH12" s="21"/>
     </row>
@@ -1346,7 +1355,9 @@
       </c>
       <c r="AD13" s="21"/>
       <c r="AE13" s="21"/>
-      <c r="AF13" s="21"/>
+      <c r="AF13" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="AG13" s="21"/>
       <c r="AH13" s="21"/>
     </row>
@@ -1410,7 +1421,9 @@
       </c>
       <c r="AD14" s="21"/>
       <c r="AE14" s="21"/>
-      <c r="AF14" s="21"/>
+      <c r="AF14" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="AG14" s="21"/>
       <c r="AH14" s="21"/>
     </row>
@@ -1474,7 +1487,9 @@
       </c>
       <c r="AD15" s="21"/>
       <c r="AE15" s="21"/>
-      <c r="AF15" s="21"/>
+      <c r="AF15" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="AG15" s="21"/>
       <c r="AH15" s="21"/>
     </row>
@@ -1538,7 +1553,9 @@
       </c>
       <c r="AD16" s="21"/>
       <c r="AE16" s="21"/>
-      <c r="AF16" s="21"/>
+      <c r="AF16" s="21" t="s">
+        <v>38</v>
+      </c>
       <c r="AG16" s="21"/>
       <c r="AH16" s="21"/>
     </row>
@@ -1602,7 +1619,9 @@
       </c>
       <c r="AD17" s="21"/>
       <c r="AE17" s="21"/>
-      <c r="AF17" s="21"/>
+      <c r="AF17" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="AG17" s="21"/>
       <c r="AH17" s="21"/>
     </row>
@@ -1612,13 +1631,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
     <mergeCell ref="AE8:AF8"/>
     <mergeCell ref="AG8:AH8"/>
     <mergeCell ref="A3:R3"/>
@@ -1635,6 +1647,13 @@
     <mergeCell ref="A6:R6"/>
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Doc/ASISTENICA DE ALUMNOS,  MG. ERIC CORONEL.xlsx
+++ b/Doc/ASISTENICA DE ALUMNOS,  MG. ERIC CORONEL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UNI\UNI-FIIS-TPW-2022-1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B52FBBF-44B8-43B9-B53F-CD49C69EC7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB73FCE3-5AFB-4F7F-966B-9FC996C08453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="43">
   <si>
     <t>Nº</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>MIERCOLES   6/04/22</t>
+  </si>
+  <si>
+    <t>VIERNES   08/04/22</t>
   </si>
 </sst>
 </file>
@@ -781,7 +784,7 @@
   <dimension ref="A1:AH18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AG16" sqref="AG16"/>
+      <selection activeCell="AG20" sqref="AG20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -993,7 +996,7 @@
       </c>
       <c r="AF8" s="23"/>
       <c r="AG8" s="22" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="AH8" s="23"/>
     </row>
@@ -1160,7 +1163,9 @@
       <c r="AF10" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="AG10" s="20"/>
+      <c r="AG10" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="AH10" s="20"/>
     </row>
     <row r="11" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1226,7 +1231,9 @@
       <c r="AF11" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="AG11" s="21"/>
+      <c r="AG11" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="AH11" s="21"/>
     </row>
     <row r="12" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1292,7 +1299,9 @@
       <c r="AF12" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="AG12" s="21"/>
+      <c r="AG12" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="AH12" s="21"/>
     </row>
     <row r="13" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1358,7 +1367,9 @@
       <c r="AF13" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="AG13" s="21"/>
+      <c r="AG13" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="AH13" s="21"/>
     </row>
     <row r="14" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1424,7 +1435,9 @@
       <c r="AF14" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="AG14" s="21"/>
+      <c r="AG14" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="AH14" s="21"/>
     </row>
     <row r="15" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1490,7 +1503,9 @@
       <c r="AF15" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="AG15" s="21"/>
+      <c r="AG15" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="AH15" s="21"/>
     </row>
     <row r="16" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1556,7 +1571,9 @@
       <c r="AF16" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AG16" s="21"/>
+      <c r="AG16" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="AH16" s="21"/>
     </row>
     <row r="17" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1622,7 +1639,9 @@
       <c r="AF17" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="AG17" s="21"/>
+      <c r="AG17" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="AH17" s="21"/>
     </row>
     <row r="18" spans="1:34" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -1631,6 +1650,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
     <mergeCell ref="AE8:AF8"/>
     <mergeCell ref="AG8:AH8"/>
     <mergeCell ref="A3:R3"/>
@@ -1647,13 +1673,6 @@
     <mergeCell ref="A6:R6"/>
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
